--- a/data/hotels_by_city/Dallas/Dallas_shard_402.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_402.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="786">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>P2572LVchrisl</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>silverspoon01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r555940474-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Miranda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r554254671-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>I felt right at home. The room was clean and the bed was comfortable. The staff was very kind, helpful, friendly and courteous. I've never stayed at a hotel that offered a complementary social hour. It was fantastic! If I'm in town, I will definitely stay here again.</t>
   </si>
   <si>
+    <t>cynthiat554</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r552774880-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>wdras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r552767173-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -243,6 +258,9 @@
     <t xml:space="preserve">Great staff, large rooms for a couple.  Good variety of menu items on continental breakfast.  Liked the variety of both hot and cold items.  Very quiet and comfortable.  Would stay there again.  Liked having a printer in business center to print boarding passes.  </t>
   </si>
   <si>
+    <t>Dianna A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r545888804-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Josh H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r543435892-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>benniejohnb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r543255945-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -294,6 +318,9 @@
     <t xml:space="preserve">Randy did a great job with check in and provided the best option based on family size. He helped us with some milk from the back for my baby. Randy also was very well spoken and did a great job in terms of customer service. Breakfast was great with many option for children and adults. Everything was very clean including our rooms. Highly recommend a stay. </t>
   </si>
   <si>
+    <t>Colleen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r542757244-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -309,6 +336,9 @@
     <t>The staff is always wonderful at the Homewood Suites in Allen, TX and the accommodations the same. I look forward to trips to our Allen office so I can stay at Homewood Suites. Another great stay at Homewood Suites in Allen, TX!</t>
   </si>
   <si>
+    <t>B1329SEjohne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r542042179-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -324,6 +354,9 @@
     <t>This hotel was very clean close to office staff were very helpful! Enjoyed the complimentary breakfast and the drinks at the evening social! Great hotel! Very clean! shopping area close overall great accommodations!</t>
   </si>
   <si>
+    <t>JacDu644</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r540289382-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -342,6 +375,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>chethangururaja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r539824117-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -357,6 +393,9 @@
     <t>The staff is friendly and take care of your needs but some things need attention....The key cards work intermittently, they were out of milk on day 1 of our stay, some lights work in the room and some don’t, both TVs in the rooms don’t work simultaneously, wifi is moody.If not for the friendly and co operative staff we would have probably moved to a new place.</t>
   </si>
   <si>
+    <t>Suresh K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r538621836-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -378,6 +417,9 @@
     <t>The stay in homewood suites was excellent. This review is on behalf of the below members who stayed in this hotel. Jenny Gautreaux in room no 225. Stayed here for 3 months.Shleia Marks in room 308. Stayed here  for 3 months.Suresh Krishnan in room 209. Stayed here for 2 months. The service rendered was too good. Randy(supervisor) and Corey(maintenance guy) was top notch. They were beyond their job when it comes in giving services. And food was too good here. I would rate a 5 on 5 for the food here. Below are list of the people who treated way too good during our stay in homewood suites.Akeysmin(Front desk agent)Rebecca(Sales manager)Neil(Morning cook)Quinn(Night Auditor)Fernando(Driver)Huntee(Front desk agent)Joesh(management)More</t>
   </si>
   <si>
+    <t>magnoliagirl21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r538159641-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -393,6 +435,9 @@
     <t xml:space="preserve">Randy at the front desk is so helpful and kind. He was kind and showed us where to go to in Allen.  The rooms are amazing.  So close to shopping.  Clean and affordable. Modern upbeat!  Staff was fun and kind. </t>
   </si>
   <si>
+    <t>Donald T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r536863501-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -408,6 +453,9 @@
     <t xml:space="preserve">Really welcoming and friendly staff and environment. Can’t beat the quality of the breakfast and evening reception food and beverage. I had a really great experience at this Homewood and would recommend to anyone traveling and staying in the area. </t>
   </si>
   <si>
+    <t>D8457UQjennifers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r536080669-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -423,6 +471,9 @@
     <t>Nice sized rooms, which were clean. Staff was helpful, but overwhelmed with a lot of customers. Free breakfast ran out of eggs a few times and coffee. Spacious workout facility with lots of equipment.</t>
   </si>
   <si>
+    <t>441tiffanyp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r535724298-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -438,6 +489,9 @@
     <t>Huge disappointment! Arrived and had 2 half used toilet paper rolls in bathroom and no extra to replace with.  Beds were uncomfortable.  The breakfast was a disaster! No one from the hotel emptied any of the trash so it was overflowing and every table had dishes and trash on them.</t>
   </si>
   <si>
+    <t>curtisw710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r532510981-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -453,6 +507,9 @@
     <t>Disgustingly dirty, horrible lousy food, armed police wandering corridors because of clientele, incompetent management, horrible staff and lousy new management.  We stayed at the same property last December for two weeks and it was fine.  Now it is without a doubt the worst hotel I / we have ever stayed in 58 years!  This includes armed police officers wandering the lobbies dealing with problem residents!  Hilton should be very embarrassed and should act urgently as customer alienation is rife!  Beware and steer CLEAR.</t>
   </si>
   <si>
+    <t>551kaitlynw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r531879197-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -477,6 +534,9 @@
     <t>Thank you for a great stay! We will be back! My boyfriend and I wanted a place that was quiet, clean, and had fun things to do close to us and this is the hotel we decided upon. It was amazing and it fit all of our requirements!More</t>
   </si>
   <si>
+    <t>W8785NCmaryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r531583723-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -495,6 +555,9 @@
     <t>This hotel was a little below my expected standards for a Hilton brand.  The room carpet was dirty and there were no ice machines.  The back entrance door was broken and we entered not knowing this at a late time at night and was scolded by the front desk attendant but then he stated it had been broken along with other things at this hotel...his words.  Our stay was overall pleasant in a spacious 2 room suite.More</t>
   </si>
   <si>
+    <t>thomassE4673OR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r525320554-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -519,6 +582,9 @@
     <t>Highly recommend this hotel. Stay was very relaxed.  Amazing staff.  Quiet even though beside a busy highway. The hotel has a complimentary shuttle service to anywhere within a 5 mile radius.  Perfect if you don't have a vehicle.More</t>
   </si>
   <si>
+    <t>William F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r523652310-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -543,6 +609,9 @@
     <t>I have been using this hotel since it was first put in use. I liked this hotel and always recommended it to friends. I like especially the one king/two queen suite, not seen in most other hotels and other Homewood Suites. It is really clean, quiet, friendly, comfortable and economic. The complementary breakfast has been very good, but somehow it is not as good as before, but still a lot better than most other hotels. I guess it is of budget related?More</t>
   </si>
   <si>
+    <t>trip2travel2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r522861539-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -585,6 +654,9 @@
     <t>Great facility.  Will be back LONG TERM.  I plan to arrive this week and will be staying for months.  The work out facility is great with lots of options.  The full service kitchen is going to be helpful.  The bed was very comfortable.  The separate living room area is a must when staying long term.More</t>
   </si>
   <si>
+    <t>130brettb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r521615975-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -609,6 +681,9 @@
     <t>do not use this hotel. employees hide behind the excuse of have to talk to the manager for everything then they do not get back to you. hotel did not have the rooms we reserved more than two months priorMore</t>
   </si>
   <si>
+    <t>R3978JJjamesw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r520126876-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -630,6 +705,9 @@
     <t>Excellent..... The stay was very nice... It was cozy and the staff was very friendly... The rooms was nice size and my little ones enjoyed the play areas.... This location was close to a lot of nice events and made it easy being in a new area... Thanks Again to the staff...More</t>
   </si>
   <si>
+    <t>katshif</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r519145474-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -654,6 +732,9 @@
     <t>I was very happy with my stay. We had to be in Allen for a family event. We had a two bedroom suite that was large and spacious, as well as nicely decorated and comfortable. We had a small kitchen (that we didn't use except for the refrigerator and to make coffee). It's a very small kitchen if that is something that matters to you. The location was good--right on the major highway and next to plenty of restaurants and a good grocery store. Complimentary breakfast was very good--much better than most hotel breakfasts I have experienced. Eggs, bacon, biscuits and gravy, and continental breakfast items on the first day. The service was good. This will definitely be my hotel when I visit family in Allen/Plano. More</t>
   </si>
   <si>
+    <t>820wallyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r515754577-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -678,6 +759,9 @@
     <t>We stayed at this hotel for over 20 days. Midway the hotel underwent a staff transition that was disastrous. No room cleaning. No coffee at breakfast. The first two weeks of the stay were excellent but the remaining two were horrible. The front desk was unable to resolve issues; they were service oriented but unable to deliver the service.More</t>
   </si>
   <si>
+    <t>Gnwabara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r514794331-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -696,6 +780,9 @@
     <t>Worst hotel experience. Dirty hallways, elevator, crappy food. Could've dealt with that if that was all! Management decided to switch out furniture in occupied rooms. Who does that! Picture coming back to your hotel room to see strange men moving furniture in and out of your room! They've pulled your stuff out of the drawers and dumped said drawers on your bed. They're tramping around your room like you didn't pay good money for it. To make things worse, manager on duty was so ineffectual it was pathetic. She had no clue how to handle anything. Not sure if it was inexperience or lack of judgement. Whatever it was, they didn't make it right. Not what I expected from a Hilton brand! Doesn't end here, our Suite never got cleaned that Saturday! Hilton sure let me down that weekend.More</t>
   </si>
   <si>
+    <t>obinwabara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r513451432-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -723,6 +810,9 @@
     <t>Hotel was switching out furniture in occupied rooms without warning to us. Picture coming back to your room to strange men moving stuff in and out of your room, with your things exposed and left on your bed. Felt very violated. Room was not cleaned after all this. Manager was incapable of handling problem. Bad situation.More</t>
   </si>
   <si>
+    <t>Z7493JFmichaelt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r505345244-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -750,6 +840,9 @@
     <t>This was the worst Homewood Suites we have ever stayed at, and we have stayed at many.  A short list of the problems we encountered:  1.  Dirty room.  Popcorn kernels on the mattress pad of the sofa bed.  (Gross!) 2.  AC not working 3.  Ants in the dining area.  A line of fire ants was going to the overflowing trash can and staff were oblvious. 4.  Breakfast done wrong.  They consistently ran out of food items, utensils, etc.  Staff were completely nonchalant about it. 5.  Housekeeping:  Did not replace our extra sheets and towels even after we requested them. 6.  Front Desk:  When we requested extra sheets and towels, they told us the linen closet was LOCKED and that they couldn't get in.  Seriously?  Our kids had to sleep on a sofa bed with no sheet.   7.  Dirty common areas.  Grass, dirt, food on the floors by the elevators and smears on the walls inside them.  Neither looked like they had been cleaned in quite some time.More</t>
   </si>
   <si>
+    <t>rayw923</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r502366537-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -774,6 +867,9 @@
     <t>Our family all met at the hotel wanting a two bedroom wit two beds in each and a one bedroom with two beds but could only get two rooms wit one bedroom and two beds. Made it very crowded trying to have a place for everyone to sleep and the noises from the top for made it even worseMore</t>
   </si>
   <si>
+    <t>206rhondal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r501779261-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -795,6 +891,9 @@
     <t>They took money from us and we still dont know where it went. No one could ever figure it out. We had to get an attorney, I was humiliated by an employee...he locked me out of our room and refused to let me get my 6 month olds medicine or formula..I had to contact the police dept to get my things.More</t>
   </si>
   <si>
+    <t>philipdc2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r499534728-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -813,6 +912,9 @@
     <t>The hotel was excellent. Great great location. Good rate. Clean rooms. Super staff all around. Breakfast was OK but evening made up for the morning. Great selection of beers. Surrounded by excellent restaurants. More</t>
   </si>
   <si>
+    <t>tarstonj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r499429612-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -831,6 +933,9 @@
     <t>Good value and service. We did not have any issues. Outside is loud as beside the highway but as soon as you enter it's quiet and relaxing. Nice for the family and would stay again as centrally located to a lot of things in the area.More</t>
   </si>
   <si>
+    <t>Brad C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r487993690-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -858,6 +963,9 @@
     <t>This is a nice property and great staff.  The highway around the hotel is currently under construction and can be difficult getting out on to the access road or off the highway and into the property.  The rooms are well kept and furnished with everything needed to either create your own meals or refrigerate snacks and other things.  The area has a lot of development and many restaurants within a short distance.  We stayed at the hotel during a tournament and it was a short drive to the event center.More</t>
   </si>
   <si>
+    <t>722wandan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r487680362-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -876,6 +984,9 @@
     <t>Entire staff was AMAZING. Rooms were big, well stocked, and very clean. Breakfast blew my mind!!! So many choices! Free beer and wine during nighttime social hour was great!!! Will definitely come back. More</t>
   </si>
   <si>
+    <t>AFE9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r487482007-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1005,9 @@
     <t>We have been staying here several years (15-20) years.  Great Service and Suites for the price. Breakfast is always well stocked and really tasty foods.  Plenty of coffee and please make the Texas waffle, neat addition to the Homewood Suites breakfast bar.More</t>
   </si>
   <si>
+    <t>cathyk154</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r487581303-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1023,9 @@
     <t>We were in Dallas area for a family wedding.  We like to stay at Homewood hotels because of separate bedrooms and a great free breakfast!  Hotel was very clean and accommodating.  Staff was great. Able to walk to several restaurants as well.  Nice courtyard by pool along with basketball court for kids.   Great value!!More</t>
   </si>
   <si>
+    <t>msbeckser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r485984044-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1050,9 @@
     <t>I have stayed at this Homewood Allen, TX more than once so I have seen the decline. Upon arrival at 3pm (usual time for checking in) I was told our room was not ready. I didn't understand why being I had just overheard the other receptionist state to another guest they weren't that full. We finally get to our room and you could tell it was hurried cleaning of the room. We stayed several nights and by the time we left our backs were killing us...I told the front desk it was time for new beds her response was sorry... I will put some extra points on your membership. Hmm! Housekeeping was lacking I was trying to communicate with housekeeper and I could tell she didn't understand English. While I was googling Spanish she came back and handed me her phone..If a company is going to hire non-English speaking employees at least teach the essential words needed for their position. The evening receptions have gone down as well food combos strange ie chips and salsa with lobster bisque soup &amp; chicken strips...salad bar consisted of cheese &amp; lettuce..I felt as if that day was cleaning g out the fridge day with the combos they had placed out. I called one day around 10 am to speak with management and was told no one was there. As stated, I have seen the decline and later found out former managing company sold...I have stayed at this Homewood Allen, TX more than once so I have seen the decline. Upon arrival at 3pm (usual time for checking in) I was told our room was not ready. I didn't understand why being I had just overheard the other receptionist state to another guest they weren't that full. We finally get to our room and you could tell it was hurried cleaning of the room. We stayed several nights and by the time we left our backs were killing us...I told the front desk it was time for new beds her response was sorry... I will put some extra points on your membership. Hmm! Housekeeping was lacking I was trying to communicate with housekeeper and I could tell she didn't understand English. While I was googling Spanish she came back and handed me her phone..If a company is going to hire non-English speaking employees at least teach the essential words needed for their position. The evening receptions have gone down as well food combos strange ie chips and salsa with lobster bisque soup &amp; chicken strips...salad bar consisted of cheese &amp; lettuce..I felt as if that day was cleaning g out the fridge day with the combos they had placed out. I called one day around 10 am to speak with management and was told no one was there. As stated, I have seen the decline and later found out former managing company sold it to another..so expect further decline at this rate. Disappointing!!!! More</t>
   </si>
   <si>
+    <t>jansR2302EI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r485130606-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1077,9 @@
     <t>Great hotel. Clean spaciousRooms. Quiet rooms are very private. Suites offer a common sitting area with private bedrooms. Great for families. Very nice daily breakfast. Convenient to restaurants and shopping. More</t>
   </si>
   <si>
+    <t>E5093AKjudym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r485204803-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1098,9 @@
     <t>The Homewood Suites in Allen, Texas is a great place to stay.  The staff is friendly and helpful and the accommodations are great. It is easy to get to from Hwy 75. The rooms are well appointed, clean and the shower is great!More</t>
   </si>
   <si>
+    <t>489dixiec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r483347110-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1116,9 @@
     <t>Our stay at Homewood Suites Dallas/Allen was a wonderful experience.  The suite was beautiful, clean and provided everything we needed.  The staff was so helpful and attentive.  The hot breakfast was tremendous.  Homewood Suites made our trip for a family wedding perfect!</t>
   </si>
   <si>
+    <t>craighV60HC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r483346986-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1134,9 @@
     <t>Suite was clean.  Complimentary breakfasts were always delicious and offered multiple options.  Pool and recreation facilities are very nice.  Location of hotel has easy access to I-75 and several restaurants.More</t>
   </si>
   <si>
+    <t>Larry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r481060079-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1170,9 @@
     <t>Nice Suite with Refrigerator, stove, micro and dishwasher.  Great full hot breakfast and this hotel includes an evening adult social Mondays through Thursdays with wonderful soup, chicken, salad bar, cheese and wine, and cookies for dessert which was really good all included in your stay.</t>
   </si>
   <si>
+    <t>1bluebutterfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r471273169-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1194,9 @@
     <t>We made hotel reservations at this hotel at least a month in advance.  We spoke to their staff specifically stating that we did not want to be near any elevator, and wanted to be placed in the back of the hotel away from noise, on the top floor as we would be staying many nights and we are light sleepers.  I called no less than three other times prior to our stay confirming all of our necessary requirements--even stating that if they could not do it, that it was fine, but let us know so we could look elsewhere.  Of course they said they could accommodate us and put us in the "backwards L" rooms away from the traffic and away from the elevator at the end of the hallway.  Well, they put us on the top floor, but not on the end room and right by the elevator.  The rooms they told us about in the "backwards L" area were not given to us.  We tried sleeping there one night and slept less than two hours due to the constant highway noise as we were on the side of the highway (we wore earplugs AND has a white noise machine on as well), and the fan running all night, and in the middle of the night, we asked the night auditor person to move us to another room as we tried to make this "wrong room" work, but the...We made hotel reservations at this hotel at least a month in advance.  We spoke to their staff specifically stating that we did not want to be near any elevator, and wanted to be placed in the back of the hotel away from noise, on the top floor as we would be staying many nights and we are light sleepers.  I called no less than three other times prior to our stay confirming all of our necessary requirements--even stating that if they could not do it, that it was fine, but let us know so we could look elsewhere.  Of course they said they could accommodate us and put us in the "backwards L" rooms away from the traffic and away from the elevator at the end of the hallway.  Well, they put us on the top floor, but not on the end room and right by the elevator.  The rooms they told us about in the "backwards L" area were not given to us.  We tried sleeping there one night and slept less than two hours due to the constant highway noise as we were on the side of the highway (we wore earplugs AND has a white noise machine on as well), and the fan running all night, and in the middle of the night, we asked the night auditor person to move us to another room as we tried to make this "wrong room" work, but the only room that he showed us was an equally noisy room a few doors down from where we were.  In the morning after packing everything back up, I called to speak to the manager and the front desk person put us off for about two hours.  When the manager finally called he was rude and said that he would not honor their Hilton corporate guarantee as he had no control over the noise in the hotel--not the elevator or the noisy side of the hotel they placed us in--and then he hung up the phone.  We then cancelled the rest of our stay there and found another hotel that actually knows what hospitality means.  We would never stay in that nasty bathroom (hair stuck on the toilet and on the tub), with such poor standards of quality and customer service.  A total disappointment......again, less than two hours of sleep, and the hotel staff/manager had absolutely no integrity in standing behind the Hilton brand guarantee.  Rude manager.  We even went to the front desk and he would not even come out from the back office to speak with us; hiding behind the rude front desk person.  After waiting several minutes, we left.  The worst Homewood Suites I've stayed in........could have been much more satisfied at the hotel we transferred to who treated us with Southern hospitality.  Actually, I should have given it the terrible rating as we can't think of a single good thing about the hotel or the experience.  A total waste of time, sleep and money!More</t>
   </si>
   <si>
+    <t>50drakes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r468681834-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1221,9 @@
     <t>The staff is friendly and very helpfull at all times, the room is very clean and comfortable, the best part of the stay is the excellent breakfast with a non repeat selection day to day with a similar experience with the evening which is a great benefit while travelling for business alone!Overall the Homewood Suites provides excellent value for any traveller!More</t>
   </si>
   <si>
+    <t>countryreim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r467267008-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1248,9 @@
     <t>This is my second time staying in this hotel.  It was too cold outside to use the pool - but I enjoyed it when we used it before. The rooms are always clean, noise level low, the breakfast is good and kept clean and stocked. I've never had any complaints.  Also, everything is so close in Allen that everything is easy to get to.  We use the road behind the hotel a lot, Junction Drive, to get south to McDermott or north to get across the highway to get to The Village at Allen.More</t>
   </si>
   <si>
+    <t>S4068SVambers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r466625770-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1275,9 @@
     <t>Stayed a week at this hotel. I would recommend it to anyone!  Service was great. Staff was friendly and the hotel was nice and clean. The nightly social was awesome. Breakfast was good every morning! It was quiet too. More</t>
   </si>
   <si>
+    <t>J A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r462392261-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1296,9 @@
     <t>Breakfast and dinner were exceptional, great variety and always had healthy items as well as the others. It was nice to have a few things the same every morning, but then rotating several others. Clean rooms and I found it pretty quiet other than just outside our room on the exterior there was some kind of large power thing - looked like a huge generator or something and it would go off constantly during the night and wake us up from time to time. Only downside was maid service, as they were going into our room I asked if they could leave an extra pillow and another package of dishwasher soap. They said yes, then didn't do either. But overall this hotel is a 5 out of 5, well worth it, and a great bargain.More</t>
   </si>
   <si>
+    <t>Kelsie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r462260580-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1311,9 @@
     <t>I stayed here for 2 nights. The staff was friendly. Breakfast had a good variety. Happy Hour was enjoyable. Rooms were clean and large. Located right off of the highway on outer road. Overall great stay!</t>
   </si>
   <si>
+    <t>barberterry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r461306754-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1332,9 @@
     <t>I needed a hotel room close to McKenny were I could relax the night before and still make it to surgery the next day without having to just stay up all night cause I live so far outside of town. I made my choice to stay here on location, brand and the digital key, I hate the check in process so having it done digitally makes me happy. The digital check in and key issuing went off without a hitch. Had a small problem worth the key at the back door when I left my room after 10pm to got the truck but the pop up botton to call the help desk was fast and easy to get fixed just turning Bluetooth off then on again and not a lick of trouble after words again. Did not dock points for the key issue new technology starts some where did Dock them for their idea of blankes. The sheets and pillows are great the curtain and the mattress pad combo does not equally a cover. More</t>
   </si>
   <si>
+    <t>AG9500</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r459540796-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1353,9 @@
     <t>Excellent staff, very helpful. Great rooms. They have studio, I bedroom and 2 bedroom. Note in the 2 bedroom suite, one room has a king bed and other has 2 queen beds.  Great breakfast and easy access from highway.More</t>
   </si>
   <si>
+    <t>XfilterX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r458075228-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1377,9 @@
     <t>Good hotel, good place to stay for events around the Allen Event center. The location and ease to the highway is convinient.  There are many decent restaurants close by as well.  Will use this hotel on our next stay.More</t>
   </si>
   <si>
+    <t>922adrianeh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r457506158-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1398,9 @@
     <t>Upon arrival, I was greeted with a smiling face and offered a little gift bag which included water and a snack. I also received complimentary points. This hotel was very clean and comfortable. I'll definitely stay here every time I'm in town.More</t>
   </si>
   <si>
+    <t>gambler695</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r455763453-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1425,9 @@
     <t>We have spent 60 days + here due to damage to our house. We stayed in a 2 bdrm suite &amp; found the hotel to be excellent and the staff very responsive. 60 days straight is a long the time to spend anywhere but home, fortunately the Homewood Suites is about as good as it gets for such a long stay. The breakfast was pretty good &amp; varied and the free dinner was great for a  hotel. The front desk, cleaning ladies &amp; maintenance people were very friendly and helpful-they do a very good job. The only downside is they need more comfortable couches in the rooms-the couch was hard, uncomfortable and we rarely used it. Otherwise kudos to the Homewood SuitesJohn GannonMore</t>
   </si>
   <si>
+    <t>Robert A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r454368935-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1468,9 @@
   </si>
   <si>
     <t>the air condition did not work and it was hot like a sauna in the room. I called the front desk and was told that it had to be adjusted by them. They made the adjustment and the room cooled but a few hours later it was hot again. Eventually maintenance came to the room to fix it but accused my kid of touching the thermostat! Even if they did touch it they have a right to adjust the temperature if its hot as I the parent was paying for the room. I called the front desk to complain and was told that the manager would call me to discuss but I never go a call even though I gave my cell. If this particular Hilton property treats Diamond members in this way I can just imagine how non Hilton Honors members are treated.More</t>
+  </si>
+  <si>
+    <t>ysuindy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r452231598-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
@@ -1332,6 +1503,9 @@
 We found the hotel to be quiet.  Our room was near the back of the hotel, so we had...My son and I spent two nights here while attending the FCS Championship game at Toyota Park in Frisco.The two room suite was a nice set up for us.  We each had our bedroom and bathroom,with a living room /kitchen in between.  One bedroom had a king bed, the other had two queen beds.  The living room had a sofa bed and ottoman.We've stayed at a similar set up in both Residence Inns and Town Place Suites.  The Homewood Suites suite is smaller than the Residence suite, larger than the Town Place suite.The breakfast room was large and had a nice selection.  We checked out the evening reception on Thursday night and it looked to be a nice set up, but being in Texas, we headed out for some BBQ.  The bathrooms each had the sink and vanity outside the room with the shower and toilet.  There was sufficient counter space in the bathrooms.The main entrance to the hotel is off the southbound frontage road for the Central Expressway.  There is access to the hotel in the rear of the property off Junction Drive.  We found that access to be easier, not having to deal with cars moving at 60 mph coming off the Expressway.  The parking is spread out on the north side of the building.We found the hotel to be quiet.  Our room was near the back of the hotel, so we had no noise issues from the highway.The hotel has two elevators.  One near the main entrance, another near the back of the hotel.If my team is fortunate enough to return to the FCS championship next year, I will gladly stay here again if I can secure the two bedroom suite.More</t>
   </si>
   <si>
+    <t>RMgigi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r450767216-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1527,9 @@
     <t>We stay in Hilton brands most of time. I chose Homewood in Allen over the Hampton due to the noise at the Hampton in Allen. Road noise and elevator ding is the loudest. Thinking that was how it would be here also. So wrong was I. There was an all night concrete pour and build up next door one night. They worked throughout the night. We heard nothing. Not a thing. My husband was fascinated by the activity and the fact it did not bother us. Room was clean, quiet and well stocked. There was only one ottoman and I requested a second but that never appeared. We do keep the do not disturb sign out though. A call however easily corrects that issue. I will say the linens at Homewood as in the bedding are the poorest I have ever experienced. Like nice sheets, lite blanket and cozy comforter stay at Hampton. I could see through these. As well as the toilet tissue. Bring your own. It is awful. Yes I would stay again. With some toilet tissue from home and my own bedding. I was grossed out by this bedding. Stay was too long for that. Six nights. Oh and no air in our room Christmas Eve through Christmas Day. Texas weather flipped but they couldn't flip our room to cold for 24 hours. Yes we called and later asked to speak to management. I was given a...We stay in Hilton brands most of time. I chose Homewood in Allen over the Hampton due to the noise at the Hampton in Allen. Road noise and elevator ding is the loudest. Thinking that was how it would be here also. So wrong was I. There was an all night concrete pour and build up next door one night. They worked throughout the night. We heard nothing. Not a thing. My husband was fascinated by the activity and the fact it did not bother us. Room was clean, quiet and well stocked. There was only one ottoman and I requested a second but that never appeared. We do keep the do not disturb sign out though. A call however easily corrects that issue. I will say the linens at Homewood as in the bedding are the poorest I have ever experienced. Like nice sheets, lite blanket and cozy comforter stay at Hampton. I could see through these. As well as the toilet tissue. Bring your own. It is awful. Yes I would stay again. With some toilet tissue from home and my own bedding. I was grossed out by this bedding. Stay was too long for that. Six nights. Oh and no air in our room Christmas Eve through Christmas Day. Texas weather flipped but they couldn't flip our room to cold for 24 hours. Yes we called and later asked to speak to management. I was given a business card. My husband finally told them it was medically necessary as I have MS and heat is our enemy. Within 10 we were cooling off. Even with the kinks I'd stay again. This accessible room was a quite room. Now to locate one of those hotel sleeping bags. My Walmart sheets are awesome compared to these.More</t>
   </si>
   <si>
+    <t>Sylvia F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r450719359-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1551,9 @@
     <t>Wonderful hotel!  Clean, friendly and great breakfasts in addition to special events.  They had breakfast with Santa on the Friday after Thanksgiving for kids staying at the hotel.  Of course the construction and traffic in Allen is a constant source of pain but it is fairly easy to get around from this hotel once you get your bearings.More</t>
   </si>
   <si>
+    <t>corrieb2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r449079851-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1593,9 @@
     <t>Stayed here for 2 months due home renovation. It was a good overall experience. Beds and pillows are good for sleeping and resting. Breakfast was good. Evening social were okay. We liked our rooms. I would recommend to anyone.More</t>
   </si>
   <si>
+    <t>Marsha T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r448386769-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1614,9 @@
     <t>Have stayed at this hotel every year for 5 years, will not go back. Water temperature and pressure terrible, no towels at hot tub, no answer at front desk. Overall feel this year was cost cutting. All this at a price considerably higher than other hotels in the area.More</t>
   </si>
   <si>
+    <t>Brandy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r447490538-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1635,9 @@
     <t>Nice place!  My guess is it is not very old, this facility is in great condition.  Has evening social with salad, chips/salsa, soup, sliders, beer/wine.  Didn't get to try breakfast, so can't speak for that, but during evening social, food was kept stocked.  Nice pool/jacuzzi area with bbq grills.  Rooms are spacious and comfortable. For the most part, staff was friendly and helpful. Would stay again!More</t>
   </si>
   <si>
+    <t>genek118</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r446977353-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1656,9 @@
     <t>Rooms were nice and the bathroom was clean , the climate control didn't work came in to room and it was so hot . Turned on air conditioning and went to bed . Woke up sweating room never cooled down.  Complained to desk in the morning and told me the air conditioning is a little tricky. Won't go back.More</t>
   </si>
   <si>
+    <t>HoustonLibrarian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r446795300-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1677,9 @@
     <t>We weren't planning on staying over night in Dallas, but had the opportunity to get medical tests done the day after meeting with my daughter's cardiologist. I found this hotel and booked it on my cell phone. Using my Hilton Honors Rewards made it less expensive too. We booked the last suite with 2 bedrooms, stopped to buy toothbrushes and toothpaste and headed over to check in. The hotel was bright and clean, and they were serving dinner when we got there. We didn't even have to go out after our long day of traveling and doctor appointments. The rooms and beds were very comfy, though we never figured out how to use the thermostats. That would have been nice. We had a good breakfast the next morning, also included in the room charge. Friendly staff at the front desk and in the dining room. Will definitely stay again. More</t>
   </si>
   <si>
+    <t>Wolfgang K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r445971041-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1695,9 @@
     <t>I am a Spire member at the Holiday inns I loved the hotel so mutch that I always will return to this hotel And will not go back to holiday inns the stuff and cleenes of the hotel Is very good my Wife and me was very impressed More</t>
   </si>
   <si>
+    <t>DS1903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r444380142-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1716,9 @@
     <t>Just returned from visiting family in the Plano/Allen area and stayed at Homewood Suites in Allen.  This is an excellent place to stay the hotel is very clean and the spacious suites are very nicely decorated.  Loved the full kitchen in our room.  We enjoyed the evening happy hour and complementary breakfast. This hotel makes you feel at home.More</t>
   </si>
   <si>
+    <t>Monet J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r440206615-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1737,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>bonniez483</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r439750815-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1755,9 @@
     <t>We love coming to Homewood Suites. So comfortable and clean for our children ans Grandkids. We have been coming at least once every year for the past 5 years.Our grandkids love getting up and heading to the breakfast bar for breakfast with us.</t>
   </si>
   <si>
+    <t>Haskell D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r438059572-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +1773,9 @@
     <t>The rooms were spacious and very nice. TV selection was good and the complementary Internet was a bit slow but acceptable. The breakfast was very good, and the Thursday night meal served was excellent.</t>
   </si>
   <si>
+    <t>davidbU2970KF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r436947543-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1581,6 +1791,9 @@
     <t>Had a good time. This was during the election. Was some what worried being in Texas. But the staff was nice and very helpful. Over all this was a good stay. Close by shopping and  restaurants. Very happy</t>
   </si>
   <si>
+    <t>137glennah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r436473979-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1809,9 @@
     <t xml:space="preserve">Hotel service was excellent! Conveniently located to shopping &amp; great restaurants.  Complimary breakfast was FULL buffet &amp; excellent!  Would recommend hotel &amp; definitely stay here again!  Do wish they offered room service &amp; available bellman </t>
   </si>
   <si>
+    <t>SoonerFan#1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r429006608-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1839,9 @@
     <t>We had a late night check in which I confirmed prior to our arrival. Two suites (family next door to one another) were very clean and comfortable. Enjoyed the toiletries provided by the hotel plus the full breakfast which was available from 7:00-10:00 am. Great waffles (in the shape of Texas), fruit, yogurt, scrambled eggs, bagels, etc. Attentive staff replenishing breakfast items. Nice to have a full kitchen, refrigerator &amp; supplies if needed in the suite for a multiple night stay.The hotel is vey convenient to the Allen Outlet Mall!We would stay here again, so thank you for a great visit!A little more signage might be helpful for those not known to its location off the highway. This may be a new hotel-at least it appears to be. Thanks again!More</t>
   </si>
   <si>
+    <t>ray891</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r426226563-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1857,9 @@
     <t>Terrible noise, room is hot as thermostat won't go below 67 but feels 70-72. Very poor sleep quality... Stay somewhere else. The Marriott is one exit up and may be a better choice. AlSo, Hampton in in front of Allen Premium Outlets might be better!</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r426329085-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1653,6 +1875,9 @@
     <t>Great hotel. Great bed, room and free breakfast. Great AC. Great over all. Recommend this hotel for sure, 100%  BUT...I left this complaint for the hotel.  Yes, as much as I loved the stay, your host in the morning during breakfast was a little out of line. I entered the area to have breakfast and they had the TV screaming loud on CNN beating up on Trump. I turned it off. Rose turned it back on. I walked up and turned it down and she said it has to be loud and on that channel. I said why do you have it on such a channel like CNN. I do not want to hear it in the morning. She said corporate demands it stay on CNN. We both departed with it being on low. Why do you dictate that CNN be blasted on the TVs in the morning? Especially during this time of the year. Why not have something neutral? You are alienating and offending half of your guests with demands it stay on CNN. Funny thing, the next two mornings it was on Fox. I turned it down again. You do not need to wake the dead with news. So, either Rose contacted HQ and asked or she was lying and left it on Fox after somebody else changed it. I do not think Hilton hotels should be the place Rose pushes her political views onto people. Might do...Great hotel. Great bed, room and free breakfast. Great AC. Great over all. Recommend this hotel for sure, 100%  BUT...I left this complaint for the hotel.  Yes, as much as I loved the stay, your host in the morning during breakfast was a little out of line. I entered the area to have breakfast and they had the TV screaming loud on CNN beating up on Trump. I turned it off. Rose turned it back on. I walked up and turned it down and she said it has to be loud and on that channel. I said why do you have it on such a channel like CNN. I do not want to hear it in the morning. She said corporate demands it stay on CNN. We both departed with it being on low. Why do you dictate that CNN be blasted on the TVs in the morning? Especially during this time of the year. Why not have something neutral? You are alienating and offending half of your guests with demands it stay on CNN. Funny thing, the next two mornings it was on Fox. I turned it down again. You do not need to wake the dead with news. So, either Rose contacted HQ and asked or she was lying and left it on Fox after somebody else changed it. I do not think Hilton hotels should be the place Rose pushes her political views onto people. Might do a check on her at this hotel.More</t>
   </si>
   <si>
+    <t>1gardengirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r425178472-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1905,9 @@
     <t>We really enjoy staying in this hotel.  It is quiet and always offers a good stay.  Close to everything.  Lots of shopping, entertainment and places to eat.  Comfortable with lots of room and like having a ceiling fan right over the bed.More</t>
   </si>
   <si>
+    <t>Victor R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r425276174-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1923,9 @@
     <t>My new home away from home. The staff was excellent. The room was great, serviced everyday. Would recommend this hotel to everyone I know and even ones I don't know. Great extras too. See you soon!!! Your new friend Victor RiveraMore</t>
   </si>
   <si>
+    <t>Toni Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r424966035-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1713,6 +1944,9 @@
     <t>This is an excellent place to stay.  The staff is very welcoming and the rooms are comfortable and clean.  The meals were excellent with long enough schedules to accomodate all travelers schedules.  The only problems I had were the road construction made it hard leaving and returning each day; once the road work is all completed I am sure it will be easier to get around.  It would have also been nice if there was literature in the lobby of activities to do in the afternoons and/or evenings.More</t>
   </si>
   <si>
+    <t>BevJE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r424341092-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +1968,9 @@
     <t>Enjoyed staying at this hotel. Friendly, attentive staff, comfortable rooms, good food and home like atmosphere.  Great place for families!! Location is great, convenient to the highway and restaurants and shopping.More</t>
   </si>
   <si>
+    <t>cwdumais59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r423876818-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +1989,9 @@
     <t>Area under construction so it's a little confusing getting there. If you want ice grab a bag before checking in. Takes a while for ice in freezer and there is no ice machine on premises. You can get some from crabby receptionist in lobby. More</t>
   </si>
   <si>
+    <t>hart277</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r423794110-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +2007,9 @@
     <t>Stayed here for one night and it was a nice stay, the place looks brand new on the inside, has a pool and sports court outside. They have a gym as well, but didn't get to test it out. They do have a dinner service, it was hot dogs and chili my night, it wasn't too bad. The breakfast was ok, your typical hotel breakfast. If you have business up in the area, it's a nice hotel. More</t>
   </si>
   <si>
+    <t>Michael W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r422770825-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1785,6 +2028,9 @@
     <t>Hotel is very clean and good price.   Service is good and access to the hotel is very easy.   The only complaint I have is the evening social since they have changed it I do not like it.   Breakfast is always good.More</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r419365851-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2055,9 @@
     <t>Great Accommodations.  Great location, staff, food.  Rooms were clean, quite, and comfortable.  Plenty of room.  Would like to see a faster and secured internet.  Nice Large screen TV, but slow to respond with lots of adds.More</t>
   </si>
   <si>
+    <t>lindybayer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r415997804-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2076,9 @@
     <t>Had a good stay at Homewood Suites.  The room was large and comfortable.  Temperature in room was easily managed to comfortable temps.  There was plenty of lighting in the room - especially for putting on makeup.  Good variety of food on the breakfast bar - however food did not stay hot in the serving dishes.  Handicap parking is an issue - very limited in front of hotel where elevator is located.  Location was great - close to outlet mall and tons of restaurants.  Pool was nice - hot tub could have been hotter.  Kids enjoyed the basketball hoop.More</t>
   </si>
   <si>
+    <t>jimmyt567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r415275407-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2106,9 @@
     <t>Great hotel, it was close to everything I needed. The hotel was clean and extrenely nice. All amenities were above all and beyond what I could ever expect. This is by far the best hotel that I have ever stayed at.More</t>
   </si>
   <si>
+    <t>Ping G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r413594304-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2127,9 @@
     <t>Our family always stayed at homewood when we moved to new city. This is another excellent stay  for our family. my teenage  kids love the hot breakfast . They used bussiness center for printing out their homework. More</t>
   </si>
   <si>
+    <t>Shannon F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r412567426-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1890,6 +2148,9 @@
     <t>Very nice hotel, nice central location. The beds are great, great pillows &amp; comforter. Love the kitchenette in the room. Love the pool, wish the hot tub had been hotter! The free breakfast was super! Very close to shopping &amp; dining choices.More</t>
   </si>
   <si>
+    <t>492charlac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r400666925-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1917,6 +2178,9 @@
     <t>We were in town for my daughter's wedding. Our stay was wonderful and most of the staff delivered OUTSTANDING service. In particular, I would like to thank Kristi Thomas for all of her help. I arrived with my sister on Thursday, but my husband, daughter and others were arriving on Saturday. We originally had the two additional rooms on the 3rd floor, but wanted to try to keep everyone close.  She checked and worked on getting us all together on the first floor, as well as alerted me as soon as the rooms were ready.  The accommodations were comfortable, clean and breakfast was good.   Unfortunately, we did have one bad experience with a gentleman at the front desk.  As you can imagine, wedding prep is super busy and we were hoping to grab a cup of coffee on our way out. There were no to go cups at the station, so we asked the front desk if we could get some. The first response from the desk clerk, who was leaning on his elbows, texting on his phone and had no one at the desk that he was helping, was a look up and "I will be there in a minute" response. After waiting several minutes, another one of us went to the front desk where the clerk finished up with another guest. I made the request for to go cups, and the curt response "I will be there in...We were in town for my daughter's wedding. Our stay was wonderful and most of the staff delivered OUTSTANDING service. In particular, I would like to thank Kristi Thomas for all of her help. I arrived with my sister on Thursday, but my husband, daughter and others were arriving on Saturday. We originally had the two additional rooms on the 3rd floor, but wanted to try to keep everyone close.  She checked and worked on getting us all together on the first floor, as well as alerted me as soon as the rooms were ready.  The accommodations were comfortable, clean and breakfast was good.   Unfortunately, we did have one bad experience with a gentleman at the front desk.  As you can imagine, wedding prep is super busy and we were hoping to grab a cup of coffee on our way out. There were no to go cups at the station, so we asked the front desk if we could get some. The first response from the desk clerk, who was leaning on his elbows, texting on his phone and had no one at the desk that he was helping, was a look up and "I will be there in a minute" response. After waiting several minutes, another one of us went to the front desk where the clerk finished up with another guest. I made the request for to go cups, and the curt response "I will be there in a minute" was received. Needless to say, this was horrible customer service and just down right rude. After several more minutes, and no other guest at the desk, he finally brought out a stack of cups.    One bad apple -- but the rest of the staff shined! Thank you!!!More</t>
   </si>
   <si>
+    <t>jeffreypendry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r398963754-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1932,6 +2196,9 @@
     <t>Pros: location is ideal with easy access to Dallas, Frisco, and Plano; breakfast had plenty of food and nice variety; dinner options M-Th were a nice bonus with free beer and wine; nice size pool; great shopping nearby (within 10 minutes); front desk staff was courteous; free parking; free and reliable wifi; kitchen in room was perfect.Cons: know this may sound picky, but other places of similar nature have complimentary laundry--kind of sucked $1.50 per wash and another $1.50 to dry.Overall, quality for the price.More</t>
   </si>
   <si>
+    <t>I1397AFcarolb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r398725097-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1947,6 +2214,9 @@
     <t>I loved the hotel it was the best stay I've had in years. I plan to go back soon. Will recommend it to everyone... The people working there were so helpful, made me fell comfortable, as if I was at home..More</t>
   </si>
   <si>
+    <t>Donald M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r398266655-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1971,6 +2241,9 @@
     <t>Loved our stay at Homewood Suites selected as our Family Reunion hotel.  All of us were satisfied - hats off to the host family for their selection and hats off to customer service representatives for their cooperation and commitment to excellent service.More</t>
   </si>
   <si>
+    <t>Teresa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r397909715-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2259,9 @@
     <t>Once great place showing age. Staff apathetic. Needs upgrade badly. Area is blowing up so they need to fix problem or fall behind. Mattresses were lumpy and uncomfortable. The couch was about as comfortable as a lawn chair. More</t>
   </si>
   <si>
+    <t>Karen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r389623838-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -2010,6 +2286,9 @@
     <t>Great Location Great Staff Clean helpful  beautiful property  I find this hotel to be the perfect location to mix business and fun when visiting North Dallas.  Highly Recommend--Families stayed there as well during my visit and it was a nice mix of business and leisureMore</t>
   </si>
   <si>
+    <t>Crashman75683</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r388894482-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -2028,6 +2307,9 @@
     <t>I really like this place. Have stayed here several times and always have a positive experience. I will keep coming back as long as they continue to deliver the same level of service. The breakfast is above average and the evening social is great for a dinner replacement.More</t>
   </si>
   <si>
+    <t>Angela52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r388497837-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -2046,6 +2328,9 @@
     <t>Had one bedroom suite.  Was clean and well decorated.  Close to several restaurants and shopping.  Breakfast was a little crowded with typical Hilton choices.  Front desk staff was friendly and helpful.  Overall a good stay!More</t>
   </si>
   <si>
+    <t>Diana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r387379490-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -2064,6 +2349,9 @@
     <t>Great place to stay in the North DFW area.  The suite was just great for three adults.  the complimentary breakfast was crowded but the selection was very good.  I would recommend this hotel for your stay.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r387372059-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -2077,6 +2365,9 @@
   </si>
   <si>
     <t>The place was clean, the lobby was nice and the breakfast was better than most. The fruit at breakfast was surprisingly fresh and tasty. Good fruit is hard to find. We stayed in the fourth floor and had no issues with hallway disturbances. More</t>
+  </si>
+  <si>
+    <t>WallacePrometheus</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d1674762-r383741381-Homewood_Suites_Dallas_Allen-Allen_Texas.html</t>
@@ -2599,43 +2890,47 @@
       <c r="A2" t="n">
         <v>60179</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2659,50 +2954,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60179</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2726,50 +3025,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60179</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>101230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2793,50 +3096,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60179</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>157000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2860,50 +3167,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60179</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>157001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2927,50 +3238,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60179</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>157002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2994,50 +3309,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60179</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3061,50 +3380,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60179</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>157003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3128,50 +3451,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60179</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>48390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>93</v>
       </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>86</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3195,50 +3522,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60179</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>157004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3262,50 +3593,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60179</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>157005</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3329,41 +3664,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60179</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>157006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -3382,50 +3721,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60179</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>157007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3443,41 +3786,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60179</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>157008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -3496,50 +3843,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60179</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>157009</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3563,50 +3914,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60179</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>157010</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3630,50 +3985,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60179</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>157011</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3697,50 +4056,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60179</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>157012</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3764,50 +4127,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60179</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>157013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3829,56 +4196,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="X20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60179</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>157014</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3900,56 +4271,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="X21" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Y21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60179</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>157015</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3971,56 +4346,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="X22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60179</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4042,56 +4421,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="X23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60179</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>157016</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4103,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="X24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -4122,37 +4505,37 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4174,56 +4557,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="X25" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60179</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>157017</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4245,56 +4632,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60179</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>157018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4316,56 +4707,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="X27" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60179</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>60368</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4387,56 +4782,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="X28" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60179</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>157019</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4458,56 +4857,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="X29" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60179</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>157020</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4525,56 +4928,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="X30" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="Y30" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60179</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>157021</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4596,56 +5003,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="X31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="Y31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60179</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>157022</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4667,56 +5078,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="X32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60179</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>157023</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4738,56 +5153,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="X33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60179</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>157024</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4809,56 +5228,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="X34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60179</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>157025</v>
+      </c>
+      <c r="C35" t="s">
+        <v>291</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4880,56 +5303,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="X35" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60179</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>157026</v>
+      </c>
+      <c r="C36" t="s">
+        <v>298</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K36" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4951,56 +5378,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="X36" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60179</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>31207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5018,56 +5449,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="X37" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Y37" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60179</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>157027</v>
+      </c>
+      <c r="C38" t="s">
+        <v>315</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5089,56 +5524,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="X38" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Y38" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60179</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>157028</v>
+      </c>
+      <c r="C39" t="s">
+        <v>322</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>289</v>
       </c>
-      <c r="L39" t="s">
-        <v>290</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>257</v>
-      </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5156,56 +5595,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="X39" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60179</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>157029</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J40" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K40" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5227,56 +5670,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="X40" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Y40" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60179</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>157030</v>
+      </c>
+      <c r="C41" t="s">
+        <v>335</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5288,56 +5735,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="X41" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="Y41" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60179</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>157031</v>
+      </c>
+      <c r="C42" t="s">
+        <v>344</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="J42" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5359,56 +5810,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="X42" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="Y42" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60179</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>157032</v>
+      </c>
+      <c r="C43" t="s">
+        <v>353</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O43" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5430,56 +5885,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="X43" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="Y43" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60179</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>157033</v>
+      </c>
+      <c r="C44" t="s">
+        <v>360</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K44" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5503,50 +5962,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60179</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>157034</v>
+      </c>
+      <c r="C45" t="s">
+        <v>366</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5568,56 +6031,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="X45" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Y45" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60179</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>40343</v>
+      </c>
+      <c r="C46" t="s">
+        <v>372</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="K46" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5637,7 +6104,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47">
@@ -5650,37 +6117,37 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="J47" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="K47" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5704,50 +6171,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60179</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>157035</v>
+      </c>
+      <c r="C48" t="s">
+        <v>384</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5765,50 +6236,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60179</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>157036</v>
+      </c>
+      <c r="C49" t="s">
+        <v>392</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="J49" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K49" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5830,56 +6305,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="X49" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="Y49" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60179</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>157037</v>
+      </c>
+      <c r="C50" t="s">
+        <v>401</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="J50" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5895,56 +6374,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="X50" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="Y50" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60179</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>157038</v>
+      </c>
+      <c r="C51" t="s">
+        <v>410</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="J51" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5966,56 +6449,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="X51" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="Y51" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60179</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>58729</v>
+      </c>
+      <c r="C52" t="s">
+        <v>419</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J52" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="K52" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="L52" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6039,50 +6526,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60179</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>157039</v>
+      </c>
+      <c r="C53" t="s">
+        <v>426</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="J53" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="K53" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6102,50 +6593,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60179</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>157040</v>
+      </c>
+      <c r="C54" t="s">
+        <v>431</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="J54" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="K54" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="L54" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6169,50 +6664,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60179</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>157041</v>
+      </c>
+      <c r="C55" t="s">
+        <v>438</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="J55" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
         <v>390</v>
       </c>
-      <c r="L55" t="s">
-        <v>391</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>345</v>
-      </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6234,56 +6733,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="X55" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="Y55" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60179</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>157042</v>
+      </c>
+      <c r="C56" t="s">
+        <v>445</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="J56" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="K56" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6305,56 +6808,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="X56" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="Y56" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60179</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>157043</v>
+      </c>
+      <c r="C57" t="s">
+        <v>453</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="J57" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="K57" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="L57" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6376,56 +6883,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="X57" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="Y57" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60179</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>157044</v>
+      </c>
+      <c r="C58" t="s">
+        <v>460</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="J58" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="K58" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="L58" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6443,56 +6954,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="X58" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="Y58" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60179</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C59" t="s">
+        <v>469</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J59" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="K59" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="L59" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6514,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="X59" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="Y59" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
@@ -6533,37 +7048,37 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="J60" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="K60" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="L60" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6585,56 +7100,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="X60" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="Y60" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60179</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>157045</v>
+      </c>
+      <c r="C61" t="s">
+        <v>484</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="J61" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="L61" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6646,56 +7165,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="X61" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="Y61" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60179</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>157046</v>
+      </c>
+      <c r="C62" t="s">
+        <v>491</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="J62" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="K62" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="L62" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6715,50 +7238,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60179</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>157047</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="K63" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="L63" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="O63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6770,56 +7297,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="X63" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="Y63" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60179</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>157048</v>
+      </c>
+      <c r="C64" t="s">
+        <v>507</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="J64" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="L64" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6841,13 +7372,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X64" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y64" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65">
@@ -6860,37 +7391,37 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="J65" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="K65" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6912,56 +7443,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X65" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y65" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60179</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>116295</v>
+      </c>
+      <c r="C66" t="s">
+        <v>521</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="J66" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="K66" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6983,56 +7518,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="X66" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="Y66" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60179</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>157049</v>
+      </c>
+      <c r="C67" t="s">
+        <v>528</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="J67" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K67" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="L67" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7044,56 +7583,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X67" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y67" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>60179</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>157050</v>
+      </c>
+      <c r="C68" t="s">
+        <v>535</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="J68" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="K68" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="L68" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O68" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7115,56 +7658,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X68" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y68" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60179</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>157051</v>
+      </c>
+      <c r="C69" t="s">
+        <v>542</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="J69" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="K69" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="L69" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7176,56 +7723,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X69" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y69" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>60179</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>157052</v>
+      </c>
+      <c r="C70" t="s">
+        <v>549</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="J70" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="K70" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="L70" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7247,56 +7798,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X70" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y70" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>60179</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>157053</v>
+      </c>
+      <c r="C71" t="s">
+        <v>555</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="J71" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="K71" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="L71" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7318,56 +7873,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="X71" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="Y71" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>60179</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>157054</v>
+      </c>
+      <c r="C72" t="s">
+        <v>562</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="J72" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="K72" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="L72" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="O72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7391,50 +7950,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>60179</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>157055</v>
+      </c>
+      <c r="C73" t="s">
+        <v>569</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="J73" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="K73" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="L73" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7458,50 +8021,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>60179</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>157056</v>
+      </c>
+      <c r="C74" t="s">
+        <v>575</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="J74" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="K74" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="L74" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="O74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7525,50 +8092,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>60179</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>157057</v>
+      </c>
+      <c r="C75" t="s">
+        <v>581</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="J75" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="K75" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="L75" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7592,50 +8163,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>60179</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>157058</v>
+      </c>
+      <c r="C76" t="s">
+        <v>587</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="J76" t="s">
-        <v>519</v>
+        <v>590</v>
       </c>
       <c r="K76" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="L76" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="O76" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7659,50 +8234,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>60179</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>157059</v>
+      </c>
+      <c r="C77" t="s">
+        <v>593</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="J77" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
       <c r="K77" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="L77" t="s">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="O77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7714,56 +8293,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="X77" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="Y77" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>60179</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>157060</v>
+      </c>
+      <c r="C78" t="s">
+        <v>603</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="J78" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="K78" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="L78" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7787,50 +8370,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>60179</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>507</v>
+      </c>
+      <c r="C79" t="s">
+        <v>609</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="J79" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="K79" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="L79" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="O79" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7852,56 +8439,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="X79" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="Y79" t="s">
-        <v>540</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>60179</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>143283</v>
+      </c>
+      <c r="C80" t="s">
+        <v>615</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="J80" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="K80" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="L80" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O80" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7919,56 +8510,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X80" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y80" t="s">
-        <v>549</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>60179</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>35168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>625</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
       <c r="J81" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="K81" t="s">
-        <v>552</v>
+        <v>628</v>
       </c>
       <c r="L81" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7990,56 +8585,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X81" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y81" t="s">
-        <v>554</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>60179</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>83802</v>
+      </c>
+      <c r="C82" t="s">
+        <v>631</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="J82" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="K82" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="L82" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8061,56 +8660,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X82" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y82" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>60179</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>157061</v>
+      </c>
+      <c r="C83" t="s">
+        <v>638</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="J83" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="K83" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="L83" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O83" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8122,56 +8725,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X83" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y83" t="s">
-        <v>567</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>60179</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>157062</v>
+      </c>
+      <c r="C84" t="s">
+        <v>646</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="J84" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="K84" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="L84" t="s">
-        <v>572</v>
+        <v>651</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O84" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8193,56 +8800,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X84" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y84" t="s">
-        <v>573</v>
+        <v>652</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>60179</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>41001</v>
+      </c>
+      <c r="C85" t="s">
+        <v>653</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="J85" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="K85" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="L85" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8254,56 +8865,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X85" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y85" t="s">
-        <v>578</v>
+        <v>658</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>60179</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>28515</v>
+      </c>
+      <c r="C86" t="s">
+        <v>659</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="J86" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="K86" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="L86" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8325,56 +8940,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="X86" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="Y86" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>60179</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C87" t="s">
+        <v>666</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="J87" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="K87" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="L87" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8396,56 +9015,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="X87" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="Y87" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>60179</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>157063</v>
+      </c>
+      <c r="C88" t="s">
+        <v>675</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="J88" t="s">
-        <v>595</v>
+        <v>678</v>
       </c>
       <c r="K88" t="s">
-        <v>596</v>
+        <v>679</v>
       </c>
       <c r="L88" t="s">
-        <v>597</v>
+        <v>680</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="O88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8467,56 +9090,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="X88" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="Y88" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>60179</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>157064</v>
+      </c>
+      <c r="C89" t="s">
+        <v>682</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="J89" t="s">
-        <v>601</v>
+        <v>685</v>
       </c>
       <c r="K89" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="L89" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8538,56 +9165,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="X89" t="s">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="Y89" t="s">
-        <v>607</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>60179</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>157065</v>
+      </c>
+      <c r="C90" t="s">
+        <v>692</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>608</v>
+        <v>693</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>609</v>
+        <v>694</v>
       </c>
       <c r="J90" t="s">
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="K90" t="s">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="L90" t="s">
-        <v>612</v>
+        <v>697</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="O90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8609,56 +9240,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="X90" t="s">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="Y90" t="s">
-        <v>613</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>60179</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>68620</v>
+      </c>
+      <c r="C91" t="s">
+        <v>699</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="J91" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="K91" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="L91" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8680,56 +9315,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="X91" t="s">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="Y91" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>60179</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>157066</v>
+      </c>
+      <c r="C92" t="s">
+        <v>706</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="J92" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="K92" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="L92" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="O92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8751,56 +9390,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="X92" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="Y92" t="s">
-        <v>628</v>
+        <v>715</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>60179</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>157067</v>
+      </c>
+      <c r="C93" t="s">
+        <v>716</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
       <c r="J93" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="K93" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="L93" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="O93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8812,56 +9455,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="X93" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="Y93" t="s">
-        <v>633</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>60179</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>157068</v>
+      </c>
+      <c r="C94" t="s">
+        <v>722</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="J94" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="K94" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="L94" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="O94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8883,56 +9530,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="X94" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="Y94" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>60179</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>15970</v>
+      </c>
+      <c r="C95" t="s">
+        <v>728</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="J95" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="K95" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="L95" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="O95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8954,56 +9605,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="X95" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="Y95" t="s">
-        <v>646</v>
+        <v>736</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>60179</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>23047</v>
+      </c>
+      <c r="C96" t="s">
+        <v>737</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>648</v>
+        <v>739</v>
       </c>
       <c r="J96" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="K96" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="L96" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="O96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9025,56 +9680,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="X96" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="Y96" t="s">
-        <v>651</v>
+        <v>742</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>60179</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>6384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>743</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="J97" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
       <c r="K97" t="s">
-        <v>655</v>
+        <v>747</v>
       </c>
       <c r="L97" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9096,56 +9755,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="X97" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="Y97" t="s">
-        <v>659</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>60179</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>157069</v>
+      </c>
+      <c r="C98" t="s">
+        <v>752</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>660</v>
+        <v>753</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="J98" t="s">
-        <v>662</v>
+        <v>755</v>
       </c>
       <c r="K98" t="s">
-        <v>663</v>
+        <v>756</v>
       </c>
       <c r="L98" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O98" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9167,56 +9830,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="X98" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="Y98" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>60179</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>157070</v>
+      </c>
+      <c r="C99" t="s">
+        <v>759</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>666</v>
+        <v>760</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="J99" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="K99" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="L99" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="n">
@@ -9234,56 +9901,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="X99" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="Y99" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>60179</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>19375</v>
+      </c>
+      <c r="C100" t="s">
+        <v>766</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>672</v>
+        <v>767</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>673</v>
+        <v>768</v>
       </c>
       <c r="J100" t="s">
-        <v>674</v>
+        <v>769</v>
       </c>
       <c r="K100" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="L100" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9305,56 +9976,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="X100" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="Y100" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>60179</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>773</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>678</v>
+        <v>774</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>679</v>
+        <v>775</v>
       </c>
       <c r="J101" t="s">
-        <v>674</v>
+        <v>769</v>
       </c>
       <c r="K101" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="L101" t="s">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O101" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9376,56 +10051,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="X101" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="Y101" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>60179</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>157071</v>
+      </c>
+      <c r="C102" t="s">
+        <v>779</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>683</v>
+        <v>780</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>684</v>
+        <v>781</v>
       </c>
       <c r="J102" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="K102" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="L102" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s"/>
@@ -9437,13 +10116,13 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="X102" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="Y102" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
